--- a/data/pca/factorExposure/factorExposure_2015-07-01.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-07-01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +723,109 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.02057160771723379</v>
+        <v>0.009411346473943779</v>
       </c>
       <c r="C2">
-        <v>-0.02421667218122039</v>
+        <v>-0.05251512882961524</v>
       </c>
       <c r="D2">
-        <v>0.1206502159395551</v>
+        <v>0.1390554098790466</v>
       </c>
       <c r="E2">
-        <v>-0.003390633039273651</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.01070820819139829</v>
+      </c>
+      <c r="F2">
+        <v>0.01437837326445924</v>
+      </c>
+      <c r="G2">
+        <v>-0.1203607707866019</v>
+      </c>
+      <c r="H2">
+        <v>-0.06967536796956246</v>
+      </c>
+      <c r="I2">
+        <v>0.01809732128884848</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.0008268565244404429</v>
+        <v>-0.003095641967823319</v>
       </c>
       <c r="C3">
-        <v>-0.0108632212812253</v>
+        <v>-0.006752793175773958</v>
       </c>
       <c r="D3">
-        <v>0.01386377260848805</v>
+        <v>0.01150770889147782</v>
       </c>
       <c r="E3">
-        <v>0.01164497997144527</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.01636024389037536</v>
+      </c>
+      <c r="F3">
+        <v>-0.0007603230941807259</v>
+      </c>
+      <c r="G3">
+        <v>-0.0111346739262371</v>
+      </c>
+      <c r="H3">
+        <v>-0.005771380156174623</v>
+      </c>
+      <c r="I3">
+        <v>-0.02461481459767815</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.04607050705899855</v>
+        <v>0.01901706989263333</v>
       </c>
       <c r="C4">
-        <v>-0.06809418383414513</v>
+        <v>-0.09984029616373995</v>
       </c>
       <c r="D4">
-        <v>0.1310305726597811</v>
+        <v>0.1367213449841076</v>
       </c>
       <c r="E4">
-        <v>0.07289856339969387</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.01404073874779444</v>
+      </c>
+      <c r="F4">
+        <v>0.08677021032795389</v>
+      </c>
+      <c r="G4">
+        <v>-0.01045007534493972</v>
+      </c>
+      <c r="H4">
+        <v>-0.04376781038637906</v>
+      </c>
+      <c r="I4">
+        <v>0.03917033561787058</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.02504103235129474</v>
+        <v>0.02635978478936205</v>
       </c>
       <c r="C6">
-        <v>-0.01326950068647036</v>
+        <v>-0.03109423506141103</v>
       </c>
       <c r="D6">
-        <v>0.1418901388275473</v>
+        <v>0.1276456560435624</v>
       </c>
       <c r="E6">
-        <v>0.029270579353355</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.04613992523359031</v>
+      </c>
+      <c r="F6">
+        <v>0.05461120044875801</v>
+      </c>
+      <c r="G6">
+        <v>-0.01105730877440969</v>
+      </c>
+      <c r="H6">
+        <v>-0.06934579764137801</v>
+      </c>
+      <c r="I6">
+        <v>-0.02774603463222109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.0079089962998381</v>
+        <v>0.008781680099150559</v>
       </c>
       <c r="C7">
-        <v>-0.02305194332557348</v>
+        <v>-0.0332670706065455</v>
       </c>
       <c r="D7">
-        <v>0.113872520905246</v>
+        <v>0.10132873925371</v>
       </c>
       <c r="E7">
-        <v>-0.004885806649434544</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.05117849378137757</v>
+      </c>
+      <c r="F7">
+        <v>0.008021640104022851</v>
+      </c>
+      <c r="G7">
+        <v>0.009305673687935992</v>
+      </c>
+      <c r="H7">
+        <v>-0.07503847382712579</v>
+      </c>
+      <c r="I7">
+        <v>-0.02085320729897057</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.0007975650695658294</v>
+        <v>-0.01048586030689125</v>
       </c>
       <c r="C8">
-        <v>-0.02696831713005438</v>
+        <v>-0.03264034516600163</v>
       </c>
       <c r="D8">
-        <v>0.08485548819695127</v>
+        <v>0.08093238935870628</v>
       </c>
       <c r="E8">
-        <v>0.01940884935393958</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.02140955323068968</v>
+      </c>
+      <c r="F8">
+        <v>0.04344356963578085</v>
+      </c>
+      <c r="G8">
+        <v>-0.06801803560047281</v>
+      </c>
+      <c r="H8">
+        <v>-0.01163402499045602</v>
+      </c>
+      <c r="I8">
+        <v>-0.04616080375694605</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.03993014616894545</v>
+        <v>0.01402309485357308</v>
       </c>
       <c r="C9">
-        <v>-0.05876050485971412</v>
+        <v>-0.0840286604458915</v>
       </c>
       <c r="D9">
-        <v>0.1330240462190709</v>
+        <v>0.119299742708359</v>
       </c>
       <c r="E9">
-        <v>0.05758072260325962</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.004877777635671069</v>
+      </c>
+      <c r="F9">
+        <v>0.05700950687909871</v>
+      </c>
+      <c r="G9">
+        <v>0.01189716195450591</v>
+      </c>
+      <c r="H9">
+        <v>-0.05915358228721596</v>
+      </c>
+      <c r="I9">
+        <v>0.007811590063395207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.1543160369601312</v>
+        <v>0.2327473273951982</v>
       </c>
       <c r="C10">
-        <v>0.1800662548545962</v>
+        <v>0.102257196727386</v>
       </c>
       <c r="D10">
-        <v>0.009520772680286791</v>
+        <v>-0.002644303515498294</v>
       </c>
       <c r="E10">
-        <v>0.04489328621430822</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.02604767452625139</v>
+      </c>
+      <c r="F10">
+        <v>0.03869228460531134</v>
+      </c>
+      <c r="G10">
+        <v>-0.00381726106455992</v>
+      </c>
+      <c r="H10">
+        <v>0.06819716931103235</v>
+      </c>
+      <c r="I10">
+        <v>-0.1163331197112393</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.02277747428293064</v>
+        <v>0.009315838351818293</v>
       </c>
       <c r="C11">
-        <v>-0.03996398501484784</v>
+        <v>-0.05308535486891783</v>
       </c>
       <c r="D11">
-        <v>0.05164815666248911</v>
+        <v>0.04404890091404377</v>
       </c>
       <c r="E11">
-        <v>-0.0167531857929481</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.02006740709328537</v>
+      </c>
+      <c r="F11">
+        <v>-0.01126837196625271</v>
+      </c>
+      <c r="G11">
+        <v>0.004107097210465827</v>
+      </c>
+      <c r="H11">
+        <v>-0.05234349172604019</v>
+      </c>
+      <c r="I11">
+        <v>0.0411717198862255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.02489621166545674</v>
+        <v>0.009757018487255032</v>
       </c>
       <c r="C12">
-        <v>-0.04038529308901635</v>
+        <v>-0.05014960164827069</v>
       </c>
       <c r="D12">
-        <v>0.06613135684888291</v>
+        <v>0.04955443827512282</v>
       </c>
       <c r="E12">
-        <v>-0.008381263088671738</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.01912105122135646</v>
+      </c>
+      <c r="F12">
+        <v>-0.01714678405190332</v>
+      </c>
+      <c r="G12">
+        <v>0.0270853681739524</v>
+      </c>
+      <c r="H12">
+        <v>-0.07279993030357705</v>
+      </c>
+      <c r="I12">
+        <v>0.02543007571033845</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.007002696870366139</v>
+        <v>-0.001753891789619161</v>
       </c>
       <c r="C13">
-        <v>-0.0249062840155318</v>
+        <v>-0.04412803196529159</v>
       </c>
       <c r="D13">
-        <v>0.1544521818068633</v>
+        <v>0.1518899845507173</v>
       </c>
       <c r="E13">
-        <v>0.02638674158430128</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.03932634261766649</v>
+      </c>
+      <c r="F13">
+        <v>0.03534137930068629</v>
+      </c>
+      <c r="G13">
+        <v>-0.02945865791838075</v>
+      </c>
+      <c r="H13">
+        <v>-0.08482665986405384</v>
+      </c>
+      <c r="I13">
+        <v>-0.09995024618333714</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.001856117857010875</v>
+        <v>-0.001469304646402083</v>
       </c>
       <c r="C14">
-        <v>-0.01954597721368096</v>
+        <v>-0.02835754607662777</v>
       </c>
       <c r="D14">
-        <v>0.1052402225565434</v>
+        <v>0.1057527954466209</v>
       </c>
       <c r="E14">
-        <v>0.003771510801543341</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.03045984523305289</v>
+      </c>
+      <c r="F14">
+        <v>0.02582076444649941</v>
+      </c>
+      <c r="G14">
+        <v>-0.007808380156538077</v>
+      </c>
+      <c r="H14">
+        <v>-0.1299251496126109</v>
+      </c>
+      <c r="I14">
+        <v>-0.0131678659568951</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.001094271752031051</v>
+        <v>-0.001233975189637491</v>
       </c>
       <c r="C15">
-        <v>-0.01045309165297365</v>
+        <v>-0.01946758233647572</v>
       </c>
       <c r="D15">
-        <v>0.02731678980874556</v>
+        <v>0.05406258316247437</v>
       </c>
       <c r="E15">
-        <v>-0.005373838230253828</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.006608672568463919</v>
+      </c>
+      <c r="F15">
+        <v>0.003690662128729342</v>
+      </c>
+      <c r="G15">
+        <v>-0.02164804481766284</v>
+      </c>
+      <c r="H15">
+        <v>-0.02489053479077303</v>
+      </c>
+      <c r="I15">
+        <v>0.01905532727719119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.02302096036433491</v>
+        <v>0.009772735533155013</v>
       </c>
       <c r="C16">
-        <v>-0.03807597808858047</v>
+        <v>-0.04863722193006228</v>
       </c>
       <c r="D16">
-        <v>0.0586877140025098</v>
+        <v>0.0454555600353452</v>
       </c>
       <c r="E16">
-        <v>-0.01070723862992782</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.02137758742842564</v>
+      </c>
+      <c r="F16">
+        <v>-0.007873334830594995</v>
+      </c>
+      <c r="G16">
+        <v>0.01641925079145825</v>
+      </c>
+      <c r="H16">
+        <v>-0.05624223058687015</v>
+      </c>
+      <c r="I16">
+        <v>0.03774685739610681</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1216,254 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.007248079871931193</v>
+        <v>0.0006854917393988241</v>
       </c>
       <c r="C19">
-        <v>-0.02082561391635311</v>
+        <v>-0.01994382029800889</v>
       </c>
       <c r="D19">
-        <v>0.1140045897861214</v>
+        <v>0.07152111130540349</v>
       </c>
       <c r="E19">
-        <v>0.03906848108172951</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.02024861891793843</v>
+      </c>
+      <c r="F19">
+        <v>0.007266564045565261</v>
+      </c>
+      <c r="G19">
+        <v>-0.01151016279922323</v>
+      </c>
+      <c r="H19">
+        <v>-0.06703004726432554</v>
+      </c>
+      <c r="I19">
+        <v>-0.04940089225332745</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.005971356007366095</v>
+        <v>0.003826418612731029</v>
       </c>
       <c r="C20">
-        <v>-0.02513155029183366</v>
+        <v>-0.03800654824376834</v>
       </c>
       <c r="D20">
-        <v>0.091989514961434</v>
+        <v>0.09634392449269522</v>
       </c>
       <c r="E20">
-        <v>0.03018531964968174</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.0087398568058632</v>
+      </c>
+      <c r="F20">
+        <v>0.02663671036329544</v>
+      </c>
+      <c r="G20">
+        <v>0.00240752909306183</v>
+      </c>
+      <c r="H20">
+        <v>-0.05835869830264163</v>
+      </c>
+      <c r="I20">
+        <v>0.001799855381468654</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.00945672395504805</v>
+        <v>0.002662601179508636</v>
       </c>
       <c r="C21">
-        <v>-0.03000519384779375</v>
+        <v>-0.04204658216589688</v>
       </c>
       <c r="D21">
-        <v>0.1701118234815495</v>
+        <v>0.1359006477146861</v>
       </c>
       <c r="E21">
-        <v>0.06205133613930833</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.001399422399087864</v>
+      </c>
+      <c r="F21">
+        <v>0.07171219178416689</v>
+      </c>
+      <c r="G21">
+        <v>-0.007004694092059213</v>
+      </c>
+      <c r="H21">
+        <v>-0.1822451444022497</v>
+      </c>
+      <c r="I21">
+        <v>-0.1188335087340352</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.003099669437789962</v>
+        <v>-0.01208853525015889</v>
       </c>
       <c r="C22">
-        <v>-0.06070064396090755</v>
+        <v>-0.0821384078900078</v>
       </c>
       <c r="D22">
-        <v>0.223225853700004</v>
+        <v>0.2612721674580576</v>
       </c>
       <c r="E22">
-        <v>-0.04234597512251593</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.05326016580267829</v>
+      </c>
+      <c r="F22">
+        <v>0.03255336197785857</v>
+      </c>
+      <c r="G22">
+        <v>-0.3570145609031409</v>
+      </c>
+      <c r="H22">
+        <v>0.3847681567600523</v>
+      </c>
+      <c r="I22">
+        <v>0.1319033968889552</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.003367857057143887</v>
+        <v>-0.01161766088745122</v>
       </c>
       <c r="C23">
-        <v>-0.06117336069845013</v>
+        <v>-0.08311858912180238</v>
       </c>
       <c r="D23">
-        <v>0.2227877609867608</v>
+        <v>0.2619339211023563</v>
       </c>
       <c r="E23">
-        <v>-0.04219654808506977</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.05014976347086068</v>
+      </c>
+      <c r="F23">
+        <v>0.03188456725464343</v>
+      </c>
+      <c r="G23">
+        <v>-0.3558777707074069</v>
+      </c>
+      <c r="H23">
+        <v>0.3852312790567208</v>
+      </c>
+      <c r="I23">
+        <v>0.1337288842154975</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.02959993305166524</v>
+        <v>0.009099606267199129</v>
       </c>
       <c r="C24">
-        <v>-0.05625030059438599</v>
+        <v>-0.06587991296775771</v>
       </c>
       <c r="D24">
-        <v>0.0711095101753319</v>
+        <v>0.05326594318897852</v>
       </c>
       <c r="E24">
-        <v>-0.007876502168437974</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.02570147595696626</v>
+      </c>
+      <c r="F24">
+        <v>-0.006009353459222021</v>
+      </c>
+      <c r="G24">
+        <v>0.009885291126570465</v>
+      </c>
+      <c r="H24">
+        <v>-0.08064049657599399</v>
+      </c>
+      <c r="I24">
+        <v>0.03653863569774143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.03143262694157659</v>
+        <v>0.01217993197323339</v>
       </c>
       <c r="C25">
-        <v>-0.04755070396536825</v>
+        <v>-0.06137893163969638</v>
       </c>
       <c r="D25">
-        <v>0.06529441688157622</v>
+        <v>0.05156802995725095</v>
       </c>
       <c r="E25">
-        <v>-0.001992866993040165</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.01186653220461847</v>
+      </c>
+      <c r="F25">
+        <v>-0.007490961956266999</v>
+      </c>
+      <c r="G25">
+        <v>0.01505911307440804</v>
+      </c>
+      <c r="H25">
+        <v>-0.04816014821574949</v>
+      </c>
+      <c r="I25">
+        <v>0.02568892683482865</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.009856368263183589</v>
+        <v>0.005802954660889116</v>
       </c>
       <c r="C26">
-        <v>-0.01419102003406966</v>
+        <v>-0.02488523517632128</v>
       </c>
       <c r="D26">
-        <v>0.08130738552583765</v>
+        <v>0.06827086729651764</v>
       </c>
       <c r="E26">
-        <v>0.0133301151815069</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.02594902728088351</v>
+      </c>
+      <c r="F26">
+        <v>0.02280326306965622</v>
+      </c>
+      <c r="G26">
+        <v>0.009298620704391357</v>
+      </c>
+      <c r="H26">
+        <v>-0.08477228718169785</v>
+      </c>
+      <c r="I26">
+        <v>-0.04991672206019907</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.237328918991969</v>
+        <v>0.3190653503829414</v>
       </c>
       <c r="C28">
-        <v>0.2230306175946448</v>
+        <v>0.1043269496448001</v>
       </c>
       <c r="D28">
-        <v>0.01981965453123199</v>
+        <v>-0.006317722300171742</v>
       </c>
       <c r="E28">
-        <v>0.06537892073585998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.05517895627014939</v>
+      </c>
+      <c r="F28">
+        <v>0.03481778264437255</v>
+      </c>
+      <c r="G28">
+        <v>-0.0201182051920606</v>
+      </c>
+      <c r="H28">
+        <v>0.0151683873136843</v>
+      </c>
+      <c r="I28">
+        <v>-0.1475320345570311</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.001568180998094241</v>
+        <v>-0.003048448742524625</v>
       </c>
       <c r="C29">
-        <v>-0.02245673125698306</v>
+        <v>-0.03108390386149092</v>
       </c>
       <c r="D29">
-        <v>0.1010575217987773</v>
+        <v>0.1011754012167707</v>
       </c>
       <c r="E29">
-        <v>0.008104208019441913</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.03951641849439735</v>
+      </c>
+      <c r="F29">
+        <v>0.03399097667975323</v>
+      </c>
+      <c r="G29">
+        <v>0.002498678126001594</v>
+      </c>
+      <c r="H29">
+        <v>-0.1373848246700184</v>
+      </c>
+      <c r="I29">
+        <v>-0.01502947777061313</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.02816671827881365</v>
+        <v>0.01499304489037467</v>
       </c>
       <c r="C30">
-        <v>-0.05828647789580866</v>
+        <v>-0.08486479584710639</v>
       </c>
       <c r="D30">
-        <v>0.1675747410128087</v>
+        <v>0.1618281536304662</v>
       </c>
       <c r="E30">
-        <v>0.01550404654586836</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.04070840640181147</v>
+      </c>
+      <c r="F30">
+        <v>0.03647277658470516</v>
+      </c>
+      <c r="G30">
+        <v>-0.03418911947076163</v>
+      </c>
+      <c r="H30">
+        <v>-0.06204329399517063</v>
+      </c>
+      <c r="I30">
+        <v>0.06240126896514678</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.04793283196075175</v>
+        <v>0.009835780230446522</v>
       </c>
       <c r="C31">
-        <v>-0.08318891037755625</v>
+        <v>-0.09254196434964906</v>
       </c>
       <c r="D31">
-        <v>0.07246419232410306</v>
+        <v>0.04094404299950687</v>
       </c>
       <c r="E31">
-        <v>0.008621502670590763</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.008435534158653292</v>
+      </c>
+      <c r="F31">
+        <v>0.01139692794950428</v>
+      </c>
+      <c r="G31">
+        <v>-0.001884988733250369</v>
+      </c>
+      <c r="H31">
+        <v>-0.04744705587488895</v>
+      </c>
+      <c r="I31">
+        <v>-0.07354528578083937</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.02259779306931437</v>
+        <v>0.009296542465193189</v>
       </c>
       <c r="C32">
-        <v>-0.03127962967688652</v>
+        <v>-0.04422942906439246</v>
       </c>
       <c r="D32">
-        <v>0.1101517709181942</v>
+        <v>0.1102755268837014</v>
       </c>
       <c r="E32">
-        <v>0.06298071919104012</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.005507948434910349</v>
+      </c>
+      <c r="F32">
+        <v>0.04760708924794675</v>
+      </c>
+      <c r="G32">
+        <v>-0.02542866134798205</v>
+      </c>
+      <c r="H32">
+        <v>-0.04459663657008622</v>
+      </c>
+      <c r="I32">
+        <v>-0.08231101235541231</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.0162308870265928</v>
+        <v>0.006023199302425635</v>
       </c>
       <c r="C33">
-        <v>-0.04195395568313302</v>
+        <v>-0.05702334212794294</v>
       </c>
       <c r="D33">
-        <v>0.1490850628572784</v>
+        <v>0.1266773291051697</v>
       </c>
       <c r="E33">
-        <v>0.03289722095681064</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.01676459772686885</v>
+      </c>
+      <c r="F33">
+        <v>0.02629939884330013</v>
+      </c>
+      <c r="G33">
+        <v>-0.003870952877403448</v>
+      </c>
+      <c r="H33">
+        <v>-0.07299806954757258</v>
+      </c>
+      <c r="I33">
+        <v>-0.02064181834745052</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.02685938198679303</v>
+        <v>0.006091589896684829</v>
       </c>
       <c r="C34">
-        <v>-0.05830226325416582</v>
+        <v>-0.06290423367380923</v>
       </c>
       <c r="D34">
-        <v>0.05194454736839411</v>
+        <v>0.03132217819284373</v>
       </c>
       <c r="E34">
-        <v>-0.04889050809969018</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.0295887320981761</v>
+      </c>
+      <c r="F34">
+        <v>-0.0356074958824182</v>
+      </c>
+      <c r="G34">
+        <v>0.009104252886468127</v>
+      </c>
+      <c r="H34">
+        <v>-0.06383749308760031</v>
+      </c>
+      <c r="I34">
+        <v>0.01351840249513014</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.001073002133826347</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.006126086716334974</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>0.02739597445154454</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.004029642933889774</v>
+      </c>
+      <c r="F35">
+        <v>0.01113122258136739</v>
+      </c>
+      <c r="G35">
+        <v>-0.003816689415868886</v>
+      </c>
+      <c r="H35">
+        <v>-0.03500332516984871</v>
+      </c>
+      <c r="I35">
+        <v>0.01140121092514216</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.009946015630439009</v>
+        <v>0.006118671744644442</v>
       </c>
       <c r="C36">
-        <v>-0.006449918513118399</v>
+        <v>-0.02022809272048663</v>
       </c>
       <c r="D36">
-        <v>0.09379651692145841</v>
+        <v>0.07757738874825658</v>
       </c>
       <c r="E36">
-        <v>0.03853916973999041</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.006707670296120688</v>
+      </c>
+      <c r="F36">
+        <v>0.0360913742040492</v>
+      </c>
+      <c r="G36">
+        <v>0.0005527528364350101</v>
+      </c>
+      <c r="H36">
+        <v>-0.06569271727192331</v>
+      </c>
+      <c r="I36">
+        <v>-0.03578775483301018</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.007715142701239016</v>
+        <v>0.01336558235361522</v>
       </c>
       <c r="C38">
-        <v>-0.006419953422344043</v>
+        <v>-0.01610754270540343</v>
       </c>
       <c r="D38">
-        <v>0.08993357402388642</v>
+        <v>0.08542294844276802</v>
       </c>
       <c r="E38">
-        <v>0.007054567740532204</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.008521201669243745</v>
+      </c>
+      <c r="F38">
+        <v>-0.008783270277685093</v>
+      </c>
+      <c r="G38">
+        <v>-0.01679486889796103</v>
+      </c>
+      <c r="H38">
+        <v>-0.0563864773241904</v>
+      </c>
+      <c r="I38">
+        <v>-0.03634066898865768</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.02284484346984044</v>
+        <v>0.005732847151094547</v>
       </c>
       <c r="C39">
-        <v>-0.05668575461096832</v>
+        <v>-0.0753379868827673</v>
       </c>
       <c r="D39">
-        <v>0.1178348930601772</v>
+        <v>0.1058887768690333</v>
       </c>
       <c r="E39">
-        <v>-0.02315693839694175</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.04974122384577703</v>
+      </c>
+      <c r="F39">
+        <v>-0.004046636794321869</v>
+      </c>
+      <c r="G39">
+        <v>0.01191362246214078</v>
+      </c>
+      <c r="H39">
+        <v>-0.1073689453669109</v>
+      </c>
+      <c r="I39">
+        <v>0.07029563738748315</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.0125495078350913</v>
+        <v>0.01083112188539468</v>
       </c>
       <c r="C40">
-        <v>-0.01624407122294624</v>
+        <v>-0.02535114583303463</v>
       </c>
       <c r="D40">
-        <v>0.1184582067953152</v>
+        <v>0.09738385128504641</v>
       </c>
       <c r="E40">
-        <v>-0.02502501385969408</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.0437674021863162</v>
+      </c>
+      <c r="F40">
+        <v>-0.02235716108776534</v>
+      </c>
+      <c r="G40">
+        <v>-0.06489358608513315</v>
+      </c>
+      <c r="H40">
+        <v>-0.08006025451490167</v>
+      </c>
+      <c r="I40">
+        <v>-0.06679860530640812</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.01326631132731827</v>
+        <v>0.01203190928497909</v>
       </c>
       <c r="C41">
-        <v>-0.00667660601849124</v>
+        <v>-0.01577341175303055</v>
       </c>
       <c r="D41">
-        <v>0.05889782275864623</v>
+        <v>0.04137925255059457</v>
       </c>
       <c r="E41">
-        <v>0.03015794404979714</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.02133353532004416</v>
+      </c>
+      <c r="F41">
+        <v>0.01635424791583579</v>
+      </c>
+      <c r="G41">
+        <v>-0.009714870492735204</v>
+      </c>
+      <c r="H41">
+        <v>-0.04396040210169139</v>
+      </c>
+      <c r="I41">
+        <v>-0.04894130076699178</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.007804779238622648</v>
+        <v>0.006207655221230933</v>
       </c>
       <c r="C43">
-        <v>-0.007472017968595455</v>
+        <v>-0.01485600626996771</v>
       </c>
       <c r="D43">
-        <v>0.0695911065108118</v>
+        <v>0.05078890326944698</v>
       </c>
       <c r="E43">
-        <v>0.01878849846554418</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.004169662011688158</v>
+      </c>
+      <c r="F43">
+        <v>0.0140200971795784</v>
+      </c>
+      <c r="G43">
+        <v>-0.01027570321747556</v>
+      </c>
+      <c r="H43">
+        <v>-0.06299754852693189</v>
+      </c>
+      <c r="I43">
+        <v>-0.03451373776732811</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.01835470436715123</v>
+        <v>0.009775590005327258</v>
       </c>
       <c r="C44">
-        <v>-0.02485649340001359</v>
+        <v>-0.04548319033858601</v>
       </c>
       <c r="D44">
-        <v>0.1140856798519903</v>
+        <v>0.1177527097368344</v>
       </c>
       <c r="E44">
-        <v>0.04127801492516311</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.02161581884692499</v>
+      </c>
+      <c r="F44">
+        <v>0.02742104790873851</v>
+      </c>
+      <c r="G44">
+        <v>-0.02058521123824092</v>
+      </c>
+      <c r="H44">
+        <v>-0.05090730983079136</v>
+      </c>
+      <c r="I44">
+        <v>0.05779449148444576</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1999,109 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.009643383604968518</v>
+        <v>-0.001640950172054674</v>
       </c>
       <c r="C46">
-        <v>-0.02823777849530719</v>
+        <v>-0.03928424392827148</v>
       </c>
       <c r="D46">
-        <v>0.09742842127033575</v>
+        <v>0.08472372956379907</v>
       </c>
       <c r="E46">
-        <v>0.01649079922916906</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.02542044565384293</v>
+      </c>
+      <c r="F46">
+        <v>0.02956433287660621</v>
+      </c>
+      <c r="G46">
+        <v>-0.01136926721090219</v>
+      </c>
+      <c r="H46">
+        <v>-0.1443109054513022</v>
+      </c>
+      <c r="I46">
+        <v>-0.01945340119035275</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.08970795108099328</v>
+        <v>0.03524007037697911</v>
       </c>
       <c r="C47">
-        <v>-0.1012190521011377</v>
+        <v>-0.1239296697745238</v>
       </c>
       <c r="D47">
-        <v>0.06102137946237917</v>
+        <v>0.02304763635738742</v>
       </c>
       <c r="E47">
-        <v>0.02457344733086746</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.02027907738675829</v>
+      </c>
+      <c r="F47">
+        <v>-0.0151653284370267</v>
+      </c>
+      <c r="G47">
+        <v>0.05197332572648969</v>
+      </c>
+      <c r="H47">
+        <v>-0.03600426480378221</v>
+      </c>
+      <c r="I47">
+        <v>-0.1403961086106353</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.008432603268048715</v>
+        <v>0.004535069696947435</v>
       </c>
       <c r="C48">
-        <v>-0.01556129633165413</v>
+        <v>-0.02810979888710216</v>
       </c>
       <c r="D48">
-        <v>0.09733446145798053</v>
+        <v>0.08094308491519814</v>
       </c>
       <c r="E48">
-        <v>0.0525102082527021</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.003962790789682064</v>
+      </c>
+      <c r="F48">
+        <v>0.0394257943125377</v>
+      </c>
+      <c r="G48">
+        <v>-0.002517182939463452</v>
+      </c>
+      <c r="H48">
+        <v>-0.09633442068512192</v>
+      </c>
+      <c r="I48">
+        <v>-0.02359436198513875</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +2115,80 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.04446011787607674</v>
+        <v>0.01295340493067743</v>
       </c>
       <c r="C50">
-        <v>-0.05998792308096339</v>
+        <v>-0.07452495842217692</v>
       </c>
       <c r="D50">
-        <v>0.07158934509291881</v>
+        <v>0.04627961029718664</v>
       </c>
       <c r="E50">
-        <v>0.006093988908798078</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.001324483564975669</v>
+      </c>
+      <c r="F50">
+        <v>0.00608860536803528</v>
+      </c>
+      <c r="G50">
+        <v>-0.02149195277095883</v>
+      </c>
+      <c r="H50">
+        <v>-0.03567125580113868</v>
+      </c>
+      <c r="I50">
+        <v>-0.1258065878225573</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.003845712425764061</v>
+        <v>0.002027221133113036</v>
       </c>
       <c r="C51">
-        <v>-0.004101323031697693</v>
+        <v>-0.0162623218463834</v>
       </c>
       <c r="D51">
-        <v>0.05928479203204203</v>
+        <v>0.06612506961680617</v>
       </c>
       <c r="E51">
-        <v>0.001423776039313531</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.03709124676117516</v>
+      </c>
+      <c r="F51">
+        <v>0.03769321552130228</v>
+      </c>
+      <c r="G51">
+        <v>-0.03561377066540035</v>
+      </c>
+      <c r="H51">
+        <v>-0.05052952725582994</v>
+      </c>
+      <c r="I51">
+        <v>-0.0167324605810609</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1165729352091086</v>
+        <v>0.05971756014547797</v>
       </c>
       <c r="C53">
-        <v>-0.1163388238030137</v>
+        <v>-0.1565063221225193</v>
       </c>
       <c r="D53">
-        <v>0.01998695659837273</v>
+        <v>-0.01485372322045445</v>
       </c>
       <c r="E53">
-        <v>0.05522045781410212</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.03425820248091204</v>
+      </c>
+      <c r="F53">
+        <v>0.04512727981394872</v>
+      </c>
+      <c r="G53">
+        <v>-0.005014353287676059</v>
+      </c>
+      <c r="H53">
+        <v>-0.001905883495641521</v>
+      </c>
+      <c r="I53">
+        <v>-0.08373728022742884</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.01822918891960647</v>
+        <v>0.009886960653055176</v>
       </c>
       <c r="C54">
-        <v>-0.02274154113739183</v>
+        <v>-0.04071810819610908</v>
       </c>
       <c r="D54">
-        <v>0.1053915496622605</v>
+        <v>0.08472205573291032</v>
       </c>
       <c r="E54">
-        <v>-0.002174940299356469</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.01193692693868262</v>
+      </c>
+      <c r="F54">
+        <v>-0.001757548282467863</v>
+      </c>
+      <c r="G54">
+        <v>-0.02287852638499208</v>
+      </c>
+      <c r="H54">
+        <v>-0.09944468369397778</v>
+      </c>
+      <c r="I54">
+        <v>-0.04762581355000565</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.1029666532986531</v>
+        <v>0.0461713098732783</v>
       </c>
       <c r="C55">
-        <v>-0.09849701560328691</v>
+        <v>-0.1291190295802104</v>
       </c>
       <c r="D55">
-        <v>0.00906920303065592</v>
+        <v>-0.02608757817335244</v>
       </c>
       <c r="E55">
-        <v>0.01245214015839097</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.001026347947967312</v>
+      </c>
+      <c r="F55">
+        <v>0.01221738595011116</v>
+      </c>
+      <c r="G55">
+        <v>-0.01447366308564686</v>
+      </c>
+      <c r="H55">
+        <v>-0.01055366550214009</v>
+      </c>
+      <c r="I55">
+        <v>-0.08837673454467601</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1436383406292967</v>
+        <v>0.06431918627008468</v>
       </c>
       <c r="C56">
-        <v>-0.1315907070333277</v>
+        <v>-0.1877845030363492</v>
       </c>
       <c r="D56">
-        <v>0.007109624348605033</v>
+        <v>-0.02342432385512343</v>
       </c>
       <c r="E56">
-        <v>0.01389229652032539</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.03388164721353665</v>
+      </c>
+      <c r="F56">
+        <v>0.01237116348089533</v>
+      </c>
+      <c r="G56">
+        <v>-0.06202301618408605</v>
+      </c>
+      <c r="H56">
+        <v>-0.002296776377337809</v>
+      </c>
+      <c r="I56">
+        <v>-0.1087124201625809</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2347,138 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.001558844910561049</v>
+        <v>0.004049131113852061</v>
       </c>
       <c r="C58">
-        <v>-0.01243276795913832</v>
+        <v>-0.04872006249001586</v>
       </c>
       <c r="D58">
-        <v>0.2260762503316112</v>
+        <v>0.2861787313510617</v>
       </c>
       <c r="E58">
-        <v>0.0706572413649568</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.02021421705905016</v>
+      </c>
+      <c r="F58">
+        <v>0.09422557588678175</v>
+      </c>
+      <c r="G58">
+        <v>-0.1280710556868103</v>
+      </c>
+      <c r="H58">
+        <v>0.09423952472162814</v>
+      </c>
+      <c r="I58">
+        <v>0.05968734524417642</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.1655865372165503</v>
+        <v>0.245169363966278</v>
       </c>
       <c r="C59">
-        <v>0.1597329586577589</v>
+        <v>0.07122429957935543</v>
       </c>
       <c r="D59">
-        <v>0.0491501794756816</v>
+        <v>0.05996851536339697</v>
       </c>
       <c r="E59">
-        <v>0.03768194639390605</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.03447614680924246</v>
+      </c>
+      <c r="F59">
+        <v>0.01411021295184688</v>
+      </c>
+      <c r="G59">
+        <v>-0.002190737912377892</v>
+      </c>
+      <c r="H59">
+        <v>0.01234037910020025</v>
+      </c>
+      <c r="I59">
+        <v>-0.04356848989606043</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1979623484111881</v>
+        <v>0.1517142182456834</v>
       </c>
       <c r="C60">
-        <v>-0.08603880449559909</v>
+        <v>-0.1682495674306596</v>
       </c>
       <c r="D60">
-        <v>0.1576393398237328</v>
+        <v>0.08062640702762743</v>
       </c>
       <c r="E60">
-        <v>-0.1901688899639462</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.2309322131532654</v>
+      </c>
+      <c r="F60">
+        <v>-0.1586147822435641</v>
+      </c>
+      <c r="G60">
+        <v>0.2238752335140091</v>
+      </c>
+      <c r="H60">
+        <v>0.2220855188311329</v>
+      </c>
+      <c r="I60">
+        <v>0.03082405094091054</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.03324279449831273</v>
+        <v>0.01280309041029664</v>
       </c>
       <c r="C61">
-        <v>-0.05278924632115131</v>
+        <v>-0.07199376516603113</v>
       </c>
       <c r="D61">
-        <v>0.1070407982867627</v>
+        <v>0.08307260961616914</v>
       </c>
       <c r="E61">
-        <v>-0.01072453523523178</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.03703849268732525</v>
+      </c>
+      <c r="F61">
+        <v>-0.01382245973456689</v>
+      </c>
+      <c r="G61">
+        <v>0.0280034252241546</v>
+      </c>
+      <c r="H61">
+        <v>-0.09670466030437988</v>
+      </c>
+      <c r="I61">
+        <v>0.02259712192524366</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2492,225 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.01027566022237936</v>
+        <v>0.001527423063079915</v>
       </c>
       <c r="C63">
-        <v>-0.02614710485174897</v>
+        <v>-0.03617319473107686</v>
       </c>
       <c r="D63">
-        <v>0.09298283293764278</v>
+        <v>0.07033249961704327</v>
       </c>
       <c r="E63">
-        <v>0.01054336645372004</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.02865037253703994</v>
+      </c>
+      <c r="F63">
+        <v>0.02212921476291702</v>
+      </c>
+      <c r="G63">
+        <v>-0.007209415928075067</v>
+      </c>
+      <c r="H63">
+        <v>-0.06623276392808292</v>
+      </c>
+      <c r="I63">
+        <v>-0.005524526597279204</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.06583215778915269</v>
+        <v>0.02254628342990682</v>
       </c>
       <c r="C64">
-        <v>-0.0778607268818217</v>
+        <v>-0.1037328528736741</v>
       </c>
       <c r="D64">
-        <v>0.03754946925486613</v>
+        <v>0.02487684138683426</v>
       </c>
       <c r="E64">
-        <v>0.01882561299162626</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.02694649702778768</v>
+      </c>
+      <c r="F64">
+        <v>0.02216566829067819</v>
+      </c>
+      <c r="G64">
+        <v>0.0533943461098467</v>
+      </c>
+      <c r="H64">
+        <v>-0.1067036008323076</v>
+      </c>
+      <c r="I64">
+        <v>0.06805074935023564</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.02669735327180905</v>
+        <v>0.02083815897418122</v>
       </c>
       <c r="C65">
-        <v>-0.01600346805579898</v>
+        <v>-0.03952810630544836</v>
       </c>
       <c r="D65">
-        <v>0.1180653936712175</v>
+        <v>0.1184792150615291</v>
       </c>
       <c r="E65">
-        <v>-0.001314689252789301</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.04616215446639419</v>
+      </c>
+      <c r="F65">
+        <v>0.009237388261009581</v>
+      </c>
+      <c r="G65">
+        <v>0.01526908117872232</v>
+      </c>
+      <c r="H65">
+        <v>-0.05184487281032402</v>
+      </c>
+      <c r="I65">
+        <v>-0.007317128632923404</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.02573710142076105</v>
+        <v>0.003990775973871064</v>
       </c>
       <c r="C66">
-        <v>-0.06390303558864724</v>
+        <v>-0.09014831001533054</v>
       </c>
       <c r="D66">
-        <v>0.1221295049427304</v>
+        <v>0.1294285502527071</v>
       </c>
       <c r="E66">
-        <v>-0.02568588856871681</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.03636964310475104</v>
+      </c>
+      <c r="F66">
+        <v>-0.01223904577488376</v>
+      </c>
+      <c r="G66">
+        <v>-0.005074689047490547</v>
+      </c>
+      <c r="H66">
+        <v>-0.0623113868908368</v>
+      </c>
+      <c r="I66">
+        <v>0.07530876802101866</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.02777947272436243</v>
+        <v>0.02409850639072616</v>
       </c>
       <c r="C67">
-        <v>-0.01749249025529249</v>
+        <v>-0.02823819904988073</v>
       </c>
       <c r="D67">
-        <v>0.04468841795106841</v>
+        <v>0.03535980642773544</v>
       </c>
       <c r="E67">
-        <v>-0.01698890599216898</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.005922977567660141</v>
+      </c>
+      <c r="F67">
+        <v>-0.03035183835934209</v>
+      </c>
+      <c r="G67">
+        <v>-0.004755281574668716</v>
+      </c>
+      <c r="H67">
+        <v>-0.06377978862782874</v>
+      </c>
+      <c r="I67">
+        <v>-0.02393602829545423</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.1912597786468426</v>
+        <v>0.2676449152986279</v>
       </c>
       <c r="C68">
-        <v>0.1746449781045732</v>
+        <v>0.07242423336780739</v>
       </c>
       <c r="D68">
-        <v>0.03026230343210404</v>
+        <v>0.0335351917713583</v>
       </c>
       <c r="E68">
-        <v>0.009309339411700597</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.005399736507900232</v>
+      </c>
+      <c r="F68">
+        <v>0.02886615405307722</v>
+      </c>
+      <c r="G68">
+        <v>-0.06517864649396074</v>
+      </c>
+      <c r="H68">
+        <v>0.03792049368277186</v>
+      </c>
+      <c r="I68">
+        <v>-0.0986645020972846</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.06816035286067119</v>
+        <v>0.02065493653998925</v>
       </c>
       <c r="C69">
-        <v>-0.1130052556878238</v>
+        <v>-0.1197490578178923</v>
       </c>
       <c r="D69">
-        <v>0.08316177746818883</v>
+        <v>0.03559235463484002</v>
       </c>
       <c r="E69">
-        <v>0.009054188134433001</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.002202898360424405</v>
+      </c>
+      <c r="F69">
+        <v>-0.01641404827108412</v>
+      </c>
+      <c r="G69">
+        <v>0.03700338290590566</v>
+      </c>
+      <c r="H69">
+        <v>-0.03348999072099089</v>
+      </c>
+      <c r="I69">
+        <v>-0.09344031710380275</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.1974725353818858</v>
+        <v>0.2692337192356866</v>
       </c>
       <c r="C71">
-        <v>0.1944846909477642</v>
+        <v>0.08784504465509464</v>
       </c>
       <c r="D71">
-        <v>0.02567870806293825</v>
+        <v>0.02205204223921634</v>
       </c>
       <c r="E71">
-        <v>0.01151791780853668</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.008192061876628954</v>
+      </c>
+      <c r="F71">
+        <v>0.01334644923137345</v>
+      </c>
+      <c r="G71">
+        <v>-0.03464471571219997</v>
+      </c>
+      <c r="H71">
+        <v>-0.01727052925485703</v>
+      </c>
+      <c r="I71">
+        <v>-0.1651236799920379</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1125053007752401</v>
+        <v>0.06067147520155789</v>
       </c>
       <c r="C72">
-        <v>-0.06494315185928774</v>
+        <v>-0.1209265012367727</v>
       </c>
       <c r="D72">
-        <v>0.09472719955716549</v>
+        <v>0.06130490972601665</v>
       </c>
       <c r="E72">
-        <v>-0.05456339259599338</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.08777101167178779</v>
+      </c>
+      <c r="F72">
+        <v>-0.01536522790907449</v>
+      </c>
+      <c r="G72">
+        <v>0.02338661779144779</v>
+      </c>
+      <c r="H72">
+        <v>-0.05261985632254189</v>
+      </c>
+      <c r="I72">
+        <v>0.05237951618132822</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.1838987409886208</v>
+        <v>0.1381745809447228</v>
       </c>
       <c r="C73">
-        <v>-0.05118002205655845</v>
+        <v>-0.1414315898852675</v>
       </c>
       <c r="D73">
-        <v>0.2258865290572886</v>
+        <v>0.09361679665985669</v>
       </c>
       <c r="E73">
-        <v>-0.2810102611879169</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.3809356952772346</v>
+      </c>
+      <c r="F73">
+        <v>-0.2438752056908638</v>
+      </c>
+      <c r="G73">
+        <v>0.4243566174279367</v>
+      </c>
+      <c r="H73">
+        <v>0.1719352815207998</v>
+      </c>
+      <c r="I73">
+        <v>0.07785495877688844</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1155661045184109</v>
+        <v>0.05294030702298189</v>
       </c>
       <c r="C74">
-        <v>-0.1077358926171593</v>
+        <v>-0.1472576088970435</v>
       </c>
       <c r="D74">
-        <v>-0.02033241248805247</v>
+        <v>-0.04102156118227463</v>
       </c>
       <c r="E74">
-        <v>0.04100567759231438</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.01201071677823409</v>
+      </c>
+      <c r="F74">
+        <v>0.03997917183152818</v>
+      </c>
+      <c r="G74">
+        <v>-0.005209671788035157</v>
+      </c>
+      <c r="H74">
+        <v>0.01029654855865716</v>
+      </c>
+      <c r="I74">
+        <v>-0.1110934003813034</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.248238723466995</v>
+        <v>0.1214753343906658</v>
       </c>
       <c r="C75">
-        <v>-0.1815321735505705</v>
+        <v>-0.2686031438823699</v>
       </c>
       <c r="D75">
-        <v>-0.1040520034099477</v>
+        <v>-0.1297814280322178</v>
       </c>
       <c r="E75">
-        <v>-0.007006077311793791</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.09118782968083093</v>
+      </c>
+      <c r="F75">
+        <v>-0.03872691976351039</v>
+      </c>
+      <c r="G75">
+        <v>-0.1042674288088331</v>
+      </c>
+      <c r="H75">
+        <v>-0.007722779219020539</v>
+      </c>
+      <c r="I75">
+        <v>-0.08597449079434429</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.1506814221931073</v>
+        <v>0.06921422129768076</v>
       </c>
       <c r="C76">
-        <v>-0.1280176941095985</v>
+        <v>-0.1823729094705672</v>
       </c>
       <c r="D76">
-        <v>0.02446219102104995</v>
+        <v>-0.02833486378970223</v>
       </c>
       <c r="E76">
-        <v>0.01441444502616072</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.02737632375171735</v>
+      </c>
+      <c r="F76">
+        <v>0.003799364764427937</v>
+      </c>
+      <c r="G76">
+        <v>-0.04680897400285536</v>
+      </c>
+      <c r="H76">
+        <v>-0.03754155604294152</v>
+      </c>
+      <c r="I76">
+        <v>-0.1134808840211153</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.01663383868285291</v>
+        <v>0.02584084751422093</v>
       </c>
       <c r="C77">
-        <v>-0.07652136765409462</v>
+        <v>-0.09446013849933635</v>
       </c>
       <c r="D77">
-        <v>0.08008970020792368</v>
+        <v>0.2813282904197065</v>
       </c>
       <c r="E77">
-        <v>0.2396257816807572</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.761653755963681</v>
+      </c>
+      <c r="F77">
+        <v>-0.3227736544084115</v>
+      </c>
+      <c r="G77">
+        <v>0.2818676696374204</v>
+      </c>
+      <c r="H77">
+        <v>0.2414088147899842</v>
+      </c>
+      <c r="I77">
+        <v>-0.02951693515524279</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.03084288643233186</v>
+        <v>0.01477237156409835</v>
       </c>
       <c r="C78">
-        <v>-0.06475714375352212</v>
+        <v>-0.08515963887974438</v>
       </c>
       <c r="D78">
-        <v>0.1545689106670382</v>
+        <v>0.1352191512338542</v>
       </c>
       <c r="E78">
-        <v>0.0356902663746037</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.04950772263933418</v>
+      </c>
+      <c r="F78">
+        <v>0.0471076517673317</v>
+      </c>
+      <c r="G78">
+        <v>-0.03176056455285105</v>
+      </c>
+      <c r="H78">
+        <v>-0.01784064875980497</v>
+      </c>
+      <c r="I78">
+        <v>-0.07408767543765872</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.1003994283384144</v>
+        <v>0.03885485053526726</v>
       </c>
       <c r="C79">
-        <v>-0.1602643105986059</v>
+        <v>-0.1836631799573883</v>
       </c>
       <c r="D79">
-        <v>-0.09095137080823668</v>
+        <v>-0.06957440163175445</v>
       </c>
       <c r="E79">
-        <v>0.7904267353245227</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.1201811389235262</v>
+      </c>
+      <c r="F79">
+        <v>0.8090268320016442</v>
+      </c>
+      <c r="G79">
+        <v>0.3784691372021997</v>
+      </c>
+      <c r="H79">
+        <v>0.2290303763098857</v>
+      </c>
+      <c r="I79">
+        <v>0.1497567898303554</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.007718482326930402</v>
+        <v>0.0001599026250417665</v>
       </c>
       <c r="C80">
-        <v>-0.04573028122273402</v>
+        <v>-0.04621700611314158</v>
       </c>
       <c r="D80">
-        <v>0.04565774217414371</v>
+        <v>0.04237653430743068</v>
       </c>
       <c r="E80">
-        <v>-0.008279600024525153</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.02523923449200338</v>
+      </c>
+      <c r="F80">
+        <v>0.007401548779522401</v>
+      </c>
+      <c r="G80">
+        <v>-0.02569403836939984</v>
+      </c>
+      <c r="H80">
+        <v>-0.01581541702237143</v>
+      </c>
+      <c r="I80">
+        <v>-0.05845398058364828</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1274151755196399</v>
+        <v>0.04977361968391369</v>
       </c>
       <c r="C81">
-        <v>-0.1247058060460239</v>
+        <v>-0.1653837689315397</v>
       </c>
       <c r="D81">
-        <v>-0.06547931492381738</v>
+        <v>-0.07671799517296271</v>
       </c>
       <c r="E81">
-        <v>0.06963705889048863</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.07233847793876126</v>
+      </c>
+      <c r="F81">
+        <v>0.04369141490420542</v>
+      </c>
+      <c r="G81">
+        <v>-0.04647368193011608</v>
+      </c>
+      <c r="H81">
+        <v>-0.06486999608281623</v>
+      </c>
+      <c r="I81">
+        <v>-0.1349902126045662</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.2718397662494594</v>
+        <v>0.1071086098981005</v>
       </c>
       <c r="C82">
-        <v>-0.2756957416579507</v>
+        <v>-0.328287129430582</v>
       </c>
       <c r="D82">
-        <v>-0.2060043450464516</v>
+        <v>-0.224481564583305</v>
       </c>
       <c r="E82">
-        <v>-0.1145616769657752</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.04783678417770433</v>
+      </c>
+      <c r="F82">
+        <v>-0.1297035461704569</v>
+      </c>
+      <c r="G82">
+        <v>-0.07116206800417238</v>
+      </c>
+      <c r="H82">
+        <v>-0.09580731983039975</v>
+      </c>
+      <c r="I82">
+        <v>-0.03916212975898051</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.002920545555605705</v>
+        <v>-0.01191294454695216</v>
       </c>
       <c r="C83">
-        <v>-0.05238331506736987</v>
+        <v>-0.03479911486887476</v>
       </c>
       <c r="D83">
-        <v>0.01597188320437285</v>
+        <v>0.03872528248161281</v>
       </c>
       <c r="E83">
-        <v>0.05539432404777518</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.08916589313225552</v>
+      </c>
+      <c r="F83">
+        <v>0.02393213180367003</v>
+      </c>
+      <c r="G83">
+        <v>-0.03365550591153976</v>
+      </c>
+      <c r="H83">
+        <v>-0.000960536174412395</v>
+      </c>
+      <c r="I83">
+        <v>-0.1493459106830058</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0.0009954895067174315</v>
+        <v>-0.002602221940308356</v>
       </c>
       <c r="C84">
-        <v>0.001913922563849415</v>
+        <v>-0.01612534977852805</v>
       </c>
       <c r="D84">
-        <v>0.004216580583452588</v>
+        <v>0.04198245595599871</v>
       </c>
       <c r="E84">
-        <v>0.0006970761734993539</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.01036030829165089</v>
+      </c>
+      <c r="F84">
+        <v>0.01854636274275247</v>
+      </c>
+      <c r="G84">
+        <v>-0.0507862161425293</v>
+      </c>
+      <c r="H84">
+        <v>-0.005430007825731089</v>
+      </c>
+      <c r="I84">
+        <v>0.03375624607426272</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.1513886661396956</v>
+        <v>0.06474688073426789</v>
       </c>
       <c r="C85">
-        <v>-0.1296396573334427</v>
+        <v>-0.1837849820673868</v>
       </c>
       <c r="D85">
-        <v>-0.04142610832140954</v>
+        <v>-0.08852212640020153</v>
       </c>
       <c r="E85">
-        <v>0.02569236506630197</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.002483069827832025</v>
+      </c>
+      <c r="F85">
+        <v>0.07735083723938159</v>
+      </c>
+      <c r="G85">
+        <v>-0.03261017505094527</v>
+      </c>
+      <c r="H85">
+        <v>-0.006936812068781448</v>
+      </c>
+      <c r="I85">
+        <v>-0.09290043762004167</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.0140343807522426</v>
+        <v>0.01036993865565486</v>
       </c>
       <c r="C86">
-        <v>-0.01222247838933557</v>
+        <v>-0.03012278723326852</v>
       </c>
       <c r="D86">
-        <v>0.0842716138899284</v>
+        <v>0.1071167450188173</v>
       </c>
       <c r="E86">
-        <v>0.04985439345697228</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.040356188718254</v>
+      </c>
+      <c r="F86">
+        <v>-0.01438015951599235</v>
+      </c>
+      <c r="G86">
+        <v>0.02542568430240004</v>
+      </c>
+      <c r="H86">
+        <v>-0.002971731262503367</v>
+      </c>
+      <c r="I86">
+        <v>-0.09307410360022332</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.0166648349988272</v>
+        <v>0.00976471599536009</v>
       </c>
       <c r="C87">
-        <v>-0.02728499308352347</v>
+        <v>-0.05498840315817632</v>
       </c>
       <c r="D87">
-        <v>0.1331095806954168</v>
+        <v>0.1453346410646487</v>
       </c>
       <c r="E87">
-        <v>0.04426514033797303</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.001781695731422505</v>
+      </c>
+      <c r="F87">
+        <v>0.04001370410827213</v>
+      </c>
+      <c r="G87">
+        <v>-0.06455583086063141</v>
+      </c>
+      <c r="H87">
+        <v>-0.02727520875055558</v>
+      </c>
+      <c r="I87">
+        <v>0.03201655180281705</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.06010580616529243</v>
+        <v>0.03065482042041395</v>
       </c>
       <c r="C88">
-        <v>-0.04515934480559177</v>
+        <v>-0.06853646770033472</v>
       </c>
       <c r="D88">
-        <v>0.03325890270686057</v>
+        <v>0.006160054572041194</v>
       </c>
       <c r="E88">
-        <v>0.02902539558876211</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.01348627139268523</v>
+      </c>
+      <c r="F88">
+        <v>0.02206352169356036</v>
+      </c>
+      <c r="G88">
+        <v>-0.0003717976204351255</v>
+      </c>
+      <c r="H88">
+        <v>-0.03305709867152831</v>
+      </c>
+      <c r="I88">
+        <v>-0.04525199226690405</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.2961695970841498</v>
+        <v>0.4112651889831789</v>
       </c>
       <c r="C89">
-        <v>0.3540438603565592</v>
+        <v>0.1718398246341955</v>
       </c>
       <c r="D89">
-        <v>0.02895868181574122</v>
+        <v>0.03047157909637654</v>
       </c>
       <c r="E89">
-        <v>0.1012936993769673</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.02262864463751188</v>
+      </c>
+      <c r="F89">
+        <v>0.07466942437215705</v>
+      </c>
+      <c r="G89">
+        <v>-0.04768755308011041</v>
+      </c>
+      <c r="H89">
+        <v>-0.1498138466856332</v>
+      </c>
+      <c r="I89">
+        <v>0.3453540270533034</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.2358685403793939</v>
+        <v>0.3147148924221548</v>
       </c>
       <c r="C90">
-        <v>0.2595146741994498</v>
+        <v>0.1143679403627626</v>
       </c>
       <c r="D90">
-        <v>0.03508972981538803</v>
+        <v>0.03610137735000744</v>
       </c>
       <c r="E90">
-        <v>-0.008177371941545211</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.013195793013802</v>
+      </c>
+      <c r="F90">
+        <v>-0.0193039353528055</v>
+      </c>
+      <c r="G90">
+        <v>-0.06267020612654717</v>
+      </c>
+      <c r="H90">
+        <v>0.02345106070523615</v>
+      </c>
+      <c r="I90">
+        <v>-0.08065721788750095</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.1675266832816796</v>
+        <v>0.07380030831366553</v>
       </c>
       <c r="C91">
-        <v>-0.1753328252894883</v>
+        <v>-0.2114158272091297</v>
       </c>
       <c r="D91">
-        <v>-0.08872806474624467</v>
+        <v>-0.10521247032841</v>
       </c>
       <c r="E91">
-        <v>0.1005346491541173</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.06839743585491694</v>
+      </c>
+      <c r="F91">
+        <v>0.06877210508030088</v>
+      </c>
+      <c r="G91">
+        <v>-0.01286925551300109</v>
+      </c>
+      <c r="H91">
+        <v>-0.01038499464843092</v>
+      </c>
+      <c r="I91">
+        <v>-0.1179990274590722</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.2186742132466502</v>
+        <v>0.3346303586945889</v>
       </c>
       <c r="C92">
-        <v>0.2759544751056316</v>
+        <v>0.1504693536918012</v>
       </c>
       <c r="D92">
-        <v>-0.05033698629863047</v>
+        <v>-0.003179145457749423</v>
       </c>
       <c r="E92">
-        <v>0.05912039221040322</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.07552298250961326</v>
+      </c>
+      <c r="F92">
+        <v>0.01954426642989571</v>
+      </c>
+      <c r="G92">
+        <v>-0.03264034063031875</v>
+      </c>
+      <c r="H92">
+        <v>-0.02540034963290023</v>
+      </c>
+      <c r="I92">
+        <v>0.1701381708851418</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.2601653661392572</v>
+        <v>0.3337834489716255</v>
       </c>
       <c r="C93">
-        <v>0.2709027159858323</v>
+        <v>0.121717720034722</v>
       </c>
       <c r="D93">
-        <v>0.01642342398159876</v>
+        <v>-0.01081583799528575</v>
       </c>
       <c r="E93">
-        <v>0.004388302021369868</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.02780198341690471</v>
+      </c>
+      <c r="F93">
+        <v>0.01243264679951074</v>
+      </c>
+      <c r="G93">
+        <v>0.01415149651185816</v>
+      </c>
+      <c r="H93">
+        <v>-0.00258985357324375</v>
+      </c>
+      <c r="I93">
+        <v>-0.09686375763486935</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.313240744846777</v>
+        <v>0.1439609296034282</v>
       </c>
       <c r="C94">
-        <v>-0.2461705118008413</v>
+        <v>-0.3543103464560446</v>
       </c>
       <c r="D94">
-        <v>-0.3693872189893415</v>
+        <v>-0.3445366602092657</v>
       </c>
       <c r="E94">
-        <v>-0.1852004446707711</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.04979442906690449</v>
+      </c>
+      <c r="F94">
+        <v>-0.1109925758305157</v>
+      </c>
+      <c r="G94">
+        <v>-0.3100742559446342</v>
+      </c>
+      <c r="H94">
+        <v>0.0482989406632139</v>
+      </c>
+      <c r="I94">
+        <v>0.3862677958101288</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.01786423041709849</v>
+        <v>0.0179040979677562</v>
       </c>
       <c r="C95">
-        <v>-0.03631543649334408</v>
+        <v>-0.05948391163236862</v>
       </c>
       <c r="D95">
-        <v>0.06363065293427694</v>
+        <v>0.1108015111994934</v>
       </c>
       <c r="E95">
-        <v>0.1029639338879128</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.1909218774170314</v>
+      </c>
+      <c r="F95">
+        <v>-0.07824829687388517</v>
+      </c>
+      <c r="G95">
+        <v>0.1482473170865058</v>
+      </c>
+      <c r="H95">
+        <v>-0.3641040748463381</v>
+      </c>
+      <c r="I95">
+        <v>0.5063267887782023</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.0005518376652715793</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.0001249283923865102</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.000696165601258283</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.001173272460810815</v>
+      </c>
+      <c r="F97">
+        <v>-0.001283766892552368</v>
+      </c>
+      <c r="G97">
+        <v>0.0007956791845767858</v>
+      </c>
+      <c r="H97">
+        <v>-0.0006966856474666431</v>
+      </c>
+      <c r="I97">
+        <v>0.000463999420979525</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.1531259704998292</v>
+        <v>0.1155344989373319</v>
       </c>
       <c r="C98">
-        <v>-0.06844009650116314</v>
+        <v>-0.1419977514098006</v>
       </c>
       <c r="D98">
-        <v>0.1159962191907099</v>
+        <v>0.05661569100645258</v>
       </c>
       <c r="E98">
-        <v>-0.2065382197366086</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.2698961467317201</v>
+      </c>
+      <c r="F98">
+        <v>-0.1699139050810484</v>
+      </c>
+      <c r="G98">
+        <v>0.2613082122650583</v>
+      </c>
+      <c r="H98">
+        <v>0.1733615285859743</v>
+      </c>
+      <c r="I98">
+        <v>0.04015316171236058</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.00199085901145432</v>
+        <v>-0.002672305692932272</v>
       </c>
       <c r="C101">
-        <v>-0.02187724121919235</v>
+        <v>-0.03053543399725254</v>
       </c>
       <c r="D101">
-        <v>0.1012579545547215</v>
+        <v>0.1007899679917141</v>
       </c>
       <c r="E101">
-        <v>0.009391631053945108</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.03880959093931277</v>
+      </c>
+      <c r="F101">
+        <v>0.03442971627314675</v>
+      </c>
+      <c r="G101">
+        <v>0.001846831568967302</v>
+      </c>
+      <c r="H101">
+        <v>-0.1385773500062404</v>
+      </c>
+      <c r="I101">
+        <v>-0.01494869541576158</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.117395388933723</v>
+        <v>0.03690336363500614</v>
       </c>
       <c r="C102">
-        <v>-0.146722033167104</v>
+        <v>-0.1527105522748663</v>
       </c>
       <c r="D102">
-        <v>-0.06799246965495191</v>
+        <v>-0.09065409969347839</v>
       </c>
       <c r="E102">
-        <v>-0.03733321087761978</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.03037432978958321</v>
+      </c>
+      <c r="F102">
+        <v>-0.06736217354156673</v>
+      </c>
+      <c r="G102">
+        <v>0.01221445477723105</v>
+      </c>
+      <c r="H102">
+        <v>-0.05104193466400016</v>
+      </c>
+      <c r="I102">
+        <v>-0.0184512592427041</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
